--- a/dls_set/LEA_01/cycle6/2.xlsx
+++ b/dls_set/LEA_01/cycle6/2.xlsx
@@ -209,10 +209,10 @@
         <v>2.4770762920379639</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
+        <v>0.052444562315940857</v>
       </c>
       <c r="C13" s="0">
-        <v>0</v>
+        <v>0.14833562076091766</v>
       </c>
     </row>
     <row r="14">
@@ -220,10 +220,10 @@
         <v>2.8480358123779297</v>
       </c>
       <c r="B14" s="0">
-        <v>0.13325667381286621</v>
+        <v>0.22181642055511475</v>
       </c>
       <c r="C14" s="0">
-        <v>0.3525640070438385</v>
+        <v>0.62739157676696777</v>
       </c>
     </row>
     <row r="15">
@@ -231,10 +231,10 @@
         <v>3.2745490074157715</v>
       </c>
       <c r="B15" s="0">
-        <v>0.59630095958709717</v>
+        <v>1.0168312788009644</v>
       </c>
       <c r="C15" s="0">
-        <v>1.2037181854248047</v>
+        <v>1.1753454208374023</v>
       </c>
     </row>
     <row r="16">
@@ -242,10 +242,10 @@
         <v>3.7649359703063965</v>
       </c>
       <c r="B16" s="0">
-        <v>2.3343579769134521</v>
+        <v>3.3291506767272949</v>
       </c>
       <c r="C16" s="0">
-        <v>1.6094293594360352</v>
+        <v>1.349273681640625</v>
       </c>
     </row>
     <row r="17">
@@ -253,10 +253,10 @@
         <v>4.3287615776062012</v>
       </c>
       <c r="B17" s="0">
-        <v>4.9510679244995117</v>
+        <v>6.5806617736816406</v>
       </c>
       <c r="C17" s="0">
-        <v>1.3200004100799561</v>
+        <v>1.4236965179443359</v>
       </c>
     </row>
     <row r="18">
@@ -264,10 +264,10 @@
         <v>4.9770236015319824</v>
       </c>
       <c r="B18" s="0">
-        <v>7.2638721466064453</v>
+        <v>9.5487251281738281</v>
       </c>
       <c r="C18" s="0">
-        <v>1.2844691276550293</v>
+        <v>1.8933607339859009</v>
       </c>
     </row>
     <row r="19">
@@ -275,10 +275,10 @@
         <v>5.7223672866821289</v>
       </c>
       <c r="B19" s="0">
-        <v>8.2130584716796875</v>
+        <v>11.136787414550781</v>
       </c>
       <c r="C19" s="0">
-        <v>2.0285651683807373</v>
+        <v>2.7605080604553223</v>
       </c>
     </row>
     <row r="20">
@@ -286,10 +286,10 @@
         <v>6.57933235168457</v>
       </c>
       <c r="B20" s="0">
-        <v>7.4087648391723633</v>
+        <v>10.8428316116333</v>
       </c>
       <c r="C20" s="0">
-        <v>2.5005242824554443</v>
+        <v>3.7245430946350098</v>
       </c>
     </row>
     <row r="21">
@@ -297,10 +297,10 @@
         <v>7.5646333694458008</v>
       </c>
       <c r="B21" s="0">
-        <v>5.2815642356872559</v>
+        <v>8.9065876007080078</v>
       </c>
       <c r="C21" s="0">
-        <v>2.2695682048797607</v>
+        <v>4.2764959335327148</v>
       </c>
     </row>
     <row r="22">
@@ -308,10 +308,10 @@
         <v>8.6974897384643555</v>
       </c>
       <c r="B22" s="0">
-        <v>2.8288061618804932</v>
+        <v>6.1420974731445313</v>
       </c>
       <c r="C22" s="0">
-        <v>1.6792465448379517</v>
+        <v>3.8727495670318604</v>
       </c>
     </row>
     <row r="23">
@@ -319,10 +319,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="0">
-        <v>0.97551333904266357</v>
+        <v>3.4864053726196289</v>
       </c>
       <c r="C23" s="0">
-        <v>1.3961265087127686</v>
+        <v>2.4930763244628906</v>
       </c>
     </row>
     <row r="24">
@@ -330,10 +330,10 @@
         <v>11.497570037841797</v>
       </c>
       <c r="B24" s="0">
-        <v>0.32703468203544617</v>
+        <v>1.3679167032241821</v>
       </c>
       <c r="C24" s="0">
-        <v>0.86525249481201172</v>
+        <v>1.2112330198287964</v>
       </c>
     </row>
     <row r="25">
@@ -341,10 +341,10 @@
         <v>13.21941089630127</v>
       </c>
       <c r="B25" s="0">
-        <v>0.13718140125274658</v>
+        <v>0.25140956044197083</v>
       </c>
       <c r="C25" s="0">
-        <v>0.36294785141944885</v>
+        <v>0.36038661003112793</v>
       </c>
     </row>
     <row r="26">
@@ -352,10 +352,10 @@
         <v>15.199110984802246</v>
       </c>
       <c r="B26" s="0">
-        <v>0.027017392218112946</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0">
-        <v>0.071481294929981232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -374,10 +374,10 @@
         <v>20.092329025268555</v>
       </c>
       <c r="B28" s="0">
-        <v>0</v>
+        <v>0.031898848712444305</v>
       </c>
       <c r="C28" s="0">
-        <v>0</v>
+        <v>0.090223565697669983</v>
       </c>
     </row>
     <row r="29">
@@ -385,10 +385,10 @@
         <v>23.101297378540039</v>
       </c>
       <c r="B29" s="0">
-        <v>0</v>
+        <v>0.077550873160362244</v>
       </c>
       <c r="C29" s="0">
-        <v>0</v>
+        <v>0.21934698522090912</v>
       </c>
     </row>
     <row r="30">
@@ -396,10 +396,10 @@
         <v>26.560878753662109</v>
       </c>
       <c r="B30" s="0">
-        <v>0</v>
+        <v>0.13196295499801636</v>
       </c>
       <c r="C30" s="0">
-        <v>0</v>
+        <v>0.31111562252044678</v>
       </c>
     </row>
     <row r="31">
@@ -407,10 +407,10 @@
         <v>30.538555145263672</v>
       </c>
       <c r="B31" s="0">
-        <v>0</v>
+        <v>0.17832286655902863</v>
       </c>
       <c r="C31" s="0">
-        <v>0</v>
+        <v>0.34652248024940491</v>
       </c>
     </row>
     <row r="32">
@@ -418,10 +418,10 @@
         <v>35.111915588378906</v>
       </c>
       <c r="B32" s="0">
-        <v>0</v>
+        <v>0.18989077210426331</v>
       </c>
       <c r="C32" s="0">
-        <v>0</v>
+        <v>0.35453689098358154</v>
       </c>
     </row>
     <row r="33">
@@ -429,10 +429,10 @@
         <v>40.370170593261719</v>
       </c>
       <c r="B33" s="0">
-        <v>0</v>
+        <v>0.15800571441650391</v>
       </c>
       <c r="C33" s="0">
-        <v>0</v>
+        <v>0.33755061030387878</v>
       </c>
     </row>
     <row r="34">
@@ -440,10 +440,10 @@
         <v>46.415889739990234</v>
       </c>
       <c r="B34" s="0">
-        <v>0</v>
+        <v>0.10072866082191467</v>
       </c>
       <c r="C34" s="0">
-        <v>0</v>
+        <v>0.26595574617385864</v>
       </c>
     </row>
     <row r="35">
@@ -451,10 +451,10 @@
         <v>53.366992950439453</v>
       </c>
       <c r="B35" s="0">
-        <v>0</v>
+        <v>0.080607175827026367</v>
       </c>
       <c r="C35" s="0">
-        <v>0</v>
+        <v>0.15380460023880005</v>
       </c>
     </row>
     <row r="36">
@@ -462,10 +462,10 @@
         <v>61.359073638916016</v>
       </c>
       <c r="B36" s="0">
-        <v>0</v>
+        <v>0.096128210425376892</v>
       </c>
       <c r="C36" s="0">
-        <v>0</v>
+        <v>0.2407984733581543</v>
       </c>
     </row>
     <row r="37">
@@ -473,10 +473,10 @@
         <v>70.548027038574219</v>
       </c>
       <c r="B37" s="0">
-        <v>0</v>
+        <v>0.11763719469308853</v>
       </c>
       <c r="C37" s="0">
-        <v>0</v>
+        <v>0.33272823691368103</v>
       </c>
     </row>
     <row r="38">
@@ -484,10 +484,10 @@
         <v>81.113082885742188</v>
       </c>
       <c r="B38" s="0">
-        <v>0</v>
+        <v>0.10575366020202637</v>
       </c>
       <c r="C38" s="0">
-        <v>0</v>
+        <v>0.278071790933609</v>
       </c>
     </row>
     <row r="39">
@@ -495,10 +495,10 @@
         <v>93.260330200195313</v>
       </c>
       <c r="B39" s="0">
-        <v>0</v>
+        <v>0.077496379613876343</v>
       </c>
       <c r="C39" s="0">
-        <v>0</v>
+        <v>0.14555294811725616</v>
       </c>
     </row>
     <row r="40">
@@ -506,10 +506,10 @@
         <v>107.22672271728516</v>
       </c>
       <c r="B40" s="0">
-        <v>0</v>
+        <v>0.054860301315784454</v>
       </c>
       <c r="C40" s="0">
-        <v>0</v>
+        <v>0.15516836941242218</v>
       </c>
     </row>
     <row r="41">
@@ -517,10 +517,10 @@
         <v>123.28467559814453</v>
       </c>
       <c r="B41" s="0">
-        <v>0</v>
+        <v>0.051519401371479034</v>
       </c>
       <c r="C41" s="0">
-        <v>0</v>
+        <v>0.14571887254714966</v>
       </c>
     </row>
     <row r="42">
@@ -528,10 +528,10 @@
         <v>141.74742126464844</v>
       </c>
       <c r="B42" s="0">
-        <v>0</v>
+        <v>0.025638947263360023</v>
       </c>
       <c r="C42" s="0">
-        <v>0</v>
+        <v>0.072517894208431244</v>
       </c>
     </row>
     <row r="43">
@@ -539,10 +539,10 @@
         <v>162.97508239746094</v>
       </c>
       <c r="B43" s="0">
-        <v>0.0021573405247181654</v>
+        <v>0.0087056923657655716</v>
       </c>
       <c r="C43" s="0">
-        <v>0.0057077864184975624</v>
+        <v>0.021260660141706467</v>
       </c>
     </row>
     <row r="44">
@@ -550,10 +550,10 @@
         <v>187.38174438476563</v>
       </c>
       <c r="B44" s="0">
-        <v>0.00935140810906887</v>
+        <v>0.031609933823347092</v>
       </c>
       <c r="C44" s="0">
-        <v>0.024741498753428459</v>
+        <v>0.089406393468379974</v>
       </c>
     </row>
     <row r="45">
@@ -561,10 +561,10 @@
         <v>215.44346618652344</v>
       </c>
       <c r="B45" s="0">
-        <v>0.015582025982439518</v>
+        <v>0.062704741954803467</v>
       </c>
       <c r="C45" s="0">
-        <v>0.041226167231798172</v>
+        <v>0.1431535929441452</v>
       </c>
     </row>
     <row r="46">
@@ -572,10 +572,10 @@
         <v>247.7076416015625</v>
       </c>
       <c r="B46" s="0">
-        <v>0.016120001673698425</v>
+        <v>0.14257071912288666</v>
       </c>
       <c r="C46" s="0">
-        <v>0.042649514973163605</v>
+        <v>0.28176695108413696</v>
       </c>
     </row>
     <row r="47">
@@ -583,10 +583,10 @@
         <v>284.8035888671875</v>
       </c>
       <c r="B47" s="0">
-        <v>0.011006052605807781</v>
+        <v>0.23360620439052582</v>
       </c>
       <c r="C47" s="0">
-        <v>0.029119279235601425</v>
+        <v>0.58185297250747681</v>
       </c>
     </row>
     <row r="48">
@@ -594,10 +594,10 @@
         <v>327.45492553710938</v>
       </c>
       <c r="B48" s="0">
-        <v>0.0041294349357485771</v>
+        <v>0.28969621658325195</v>
       </c>
       <c r="C48" s="0">
-        <v>0.010925457812845707</v>
+        <v>0.80839776992797852</v>
       </c>
     </row>
     <row r="49">
@@ -605,10 +605,10 @@
         <v>376.49356079101563</v>
       </c>
       <c r="B49" s="0">
-        <v>0</v>
+        <v>0.28610289096832275</v>
       </c>
       <c r="C49" s="0">
-        <v>0</v>
+        <v>0.80922126770019531</v>
       </c>
     </row>
     <row r="50">
@@ -616,10 +616,10 @@
         <v>432.87612915039063</v>
       </c>
       <c r="B50" s="0">
-        <v>0</v>
+        <v>0.24020771682262421</v>
       </c>
       <c r="C50" s="0">
-        <v>0</v>
+        <v>0.5845034122467041</v>
       </c>
     </row>
     <row r="51">
@@ -627,10 +627,10 @@
         <v>497.70233154296875</v>
       </c>
       <c r="B51" s="0">
-        <v>0.059799175709486008</v>
+        <v>0.18962246179580688</v>
       </c>
       <c r="C51" s="0">
-        <v>0.1552794873714447</v>
+        <v>0.35147830843925476</v>
       </c>
     </row>
     <row r="52">
@@ -638,10 +638,10 @@
         <v>572.23681640625</v>
       </c>
       <c r="B52" s="0">
-        <v>0.18992060422897339</v>
+        <v>0.16739143431186676</v>
       </c>
       <c r="C52" s="0">
-        <v>0.47109448909759521</v>
+        <v>0.42080292105674744</v>
       </c>
     </row>
     <row r="53">
@@ -649,10 +649,10 @@
         <v>657.9332275390625</v>
       </c>
       <c r="B53" s="0">
-        <v>0.32295951247215271</v>
+        <v>0.1791745126247406</v>
       </c>
       <c r="C53" s="0">
-        <v>0.76917624473571777</v>
+        <v>0.50678199529647827</v>
       </c>
     </row>
     <row r="54">
@@ -660,10 +660,10 @@
         <v>756.46337890625</v>
       </c>
       <c r="B54" s="0">
-        <v>0.38927364349365234</v>
+        <v>0.16317477822303772</v>
       </c>
       <c r="C54" s="0">
-        <v>0.88162171840667725</v>
+        <v>0.46152797341346741</v>
       </c>
     </row>
     <row r="55">
@@ -671,10 +671,10 @@
         <v>869.74896240234375</v>
       </c>
       <c r="B55" s="0">
-        <v>0.42728027701377869</v>
+        <v>0.11678589880466461</v>
       </c>
       <c r="C55" s="0">
-        <v>0.72623181343078613</v>
+        <v>0.30838626623153687</v>
       </c>
     </row>
     <row r="56">
@@ -682,10 +682,10 @@
         <v>1000</v>
       </c>
       <c r="B56" s="0">
-        <v>0.46789297461509705</v>
+        <v>0.065147385001182556</v>
       </c>
       <c r="C56" s="0">
-        <v>0.4724128246307373</v>
+        <v>0.12775759398937225</v>
       </c>
     </row>
     <row r="57">
@@ -693,10 +693,10 @@
         <v>1149.7569580078125</v>
       </c>
       <c r="B57" s="0">
-        <v>0.51833248138427734</v>
+        <v>0.074515827000141144</v>
       </c>
       <c r="C57" s="0">
-        <v>0.47248518466949463</v>
+        <v>0.16343432664871216</v>
       </c>
     </row>
     <row r="58">
@@ -704,10 +704,10 @@
         <v>1321.941162109375</v>
       </c>
       <c r="B58" s="0">
-        <v>0.54207545518875122</v>
+        <v>0.14588671922683716</v>
       </c>
       <c r="C58" s="0">
-        <v>0.54727208614349365</v>
+        <v>0.39918354153633118</v>
       </c>
     </row>
     <row r="59">
@@ -715,10 +715,10 @@
         <v>1519.9110107421875</v>
       </c>
       <c r="B59" s="0">
-        <v>0.51892364025115967</v>
+        <v>0.21449357271194458</v>
       </c>
       <c r="C59" s="0">
-        <v>0.45023238658905029</v>
+        <v>0.60667943954467773</v>
       </c>
     </row>
     <row r="60">
@@ -726,10 +726,10 @@
         <v>1747.5283203125</v>
       </c>
       <c r="B60" s="0">
-        <v>0.41606965661048889</v>
+        <v>0.24202245473861694</v>
       </c>
       <c r="C60" s="0">
-        <v>0.42585000395774841</v>
+        <v>0.68454283475875854</v>
       </c>
     </row>
     <row r="61">
@@ -737,10 +737,10 @@
         <v>2009.23291015625</v>
       </c>
       <c r="B61" s="0">
-        <v>0.30833426117897034</v>
+        <v>0.30074435472488403</v>
       </c>
       <c r="C61" s="0">
-        <v>0.55056506395339966</v>
+        <v>0.61385041475296021</v>
       </c>
     </row>
     <row r="62">
@@ -748,10 +748,10 @@
         <v>2310.129638671875</v>
       </c>
       <c r="B62" s="0">
-        <v>0.24714547395706177</v>
+        <v>0.49727684259414673</v>
       </c>
       <c r="C62" s="0">
-        <v>0.61282801628112793</v>
+        <v>1.0408883094787598</v>
       </c>
     </row>
     <row r="63">
@@ -759,10 +759,10 @@
         <v>2656.087890625</v>
       </c>
       <c r="B63" s="0">
-        <v>0.1987127810716629</v>
+        <v>0.80976420640945435</v>
       </c>
       <c r="C63" s="0">
-        <v>0.52574455738067627</v>
+        <v>2.12850022315979</v>
       </c>
     </row>
     <row r="64">
@@ -770,10 +770,10 @@
         <v>3053.855712890625</v>
       </c>
       <c r="B64" s="0">
-        <v>0.12490011006593704</v>
+        <v>1.1429497003555298</v>
       </c>
       <c r="C64" s="0">
-        <v>0.33045461773872375</v>
+        <v>3.2291028499603271</v>
       </c>
     </row>
     <row r="65">
@@ -781,10 +781,10 @@
         <v>3511.19189453125</v>
       </c>
       <c r="B65" s="0">
-        <v>0.046370331197977066</v>
+        <v>1.3697460889816284</v>
       </c>
       <c r="C65" s="0">
-        <v>0.12268436700105667</v>
+        <v>3.8742270469665527</v>
       </c>
     </row>
     <row r="66">
@@ -792,10 +792,10 @@
         <v>4037.017333984375</v>
       </c>
       <c r="B66" s="0">
-        <v>0.00022212395560927689</v>
+        <v>1.3504477739334106</v>
       </c>
       <c r="C66" s="0">
-        <v>0.00058768480084836483</v>
+        <v>3.8196432590484619</v>
       </c>
     </row>
     <row r="67">
@@ -803,10 +803,10 @@
         <v>4641.5888671875</v>
       </c>
       <c r="B67" s="0">
-        <v>0.010367498733103275</v>
+        <v>1.0819442272186279</v>
       </c>
       <c r="C67" s="0">
-        <v>0.027429824694991112</v>
+        <v>3.0602004528045654</v>
       </c>
     </row>
     <row r="68">
@@ -814,10 +814,10 @@
         <v>5336.69921875</v>
       </c>
       <c r="B68" s="0">
-        <v>0.057072855532169342</v>
+        <v>0.65969276428222656</v>
       </c>
       <c r="C68" s="0">
-        <v>0.098446264863014221</v>
+        <v>1.8658928871154785</v>
       </c>
     </row>
     <row r="69">
@@ -825,10 +825,10 @@
         <v>6135.9072265625</v>
       </c>
       <c r="B69" s="0">
-        <v>0.18138702213764191</v>
+        <v>0.28349402546882629</v>
       </c>
       <c r="C69" s="0">
-        <v>0.33669793605804443</v>
+        <v>0.69444751739501953</v>
       </c>
     </row>
     <row r="70">
@@ -836,10 +836,10 @@
         <v>7054.80224609375</v>
       </c>
       <c r="B70" s="0">
-        <v>0.34199383854866028</v>
+        <v>0.12694679200649261</v>
       </c>
       <c r="C70" s="0">
-        <v>0.69254380464553833</v>
+        <v>0.32492616772651672</v>
       </c>
     </row>
     <row r="71">
@@ -847,10 +847,10 @@
         <v>8111.30859375</v>
       </c>
       <c r="B71" s="0">
-        <v>0.46732673048973083</v>
+        <v>0.21474792063236237</v>
       </c>
       <c r="C71" s="0">
-        <v>0.99592804908752441</v>
+        <v>0.6073988676071167</v>
       </c>
     </row>
     <row r="72">
@@ -858,10 +858,10 @@
         <v>9326.033203125</v>
       </c>
       <c r="B72" s="0">
-        <v>0.49863070249557495</v>
+        <v>0.29213255643844604</v>
       </c>
       <c r="C72" s="0">
-        <v>1.1008104085922241</v>
+        <v>0.826275646686554</v>
       </c>
     </row>
   </sheetData>
